--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H2">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I2">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J2">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N2">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O2">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P2">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q2">
-        <v>0.126337505148963</v>
+        <v>0.1921199982273333</v>
       </c>
       <c r="R2">
-        <v>0.126337505148963</v>
+        <v>1.729079984046</v>
       </c>
       <c r="S2">
-        <v>0.001035684210768949</v>
+        <v>0.001229147707344844</v>
       </c>
       <c r="T2">
-        <v>0.001035684210768949</v>
+        <v>0.001460971835955059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H3">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I3">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J3">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N3">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P3">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q3">
-        <v>0.7883719808004694</v>
+        <v>0.8657898654859999</v>
       </c>
       <c r="R3">
-        <v>0.7883719808004694</v>
+        <v>7.792108789374</v>
       </c>
       <c r="S3">
-        <v>0.006462882196106034</v>
+        <v>0.005539161138994401</v>
       </c>
       <c r="T3">
-        <v>0.006462882196106034</v>
+        <v>0.006583877894031782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H4">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I4">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J4">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N4">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O4">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P4">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q4">
-        <v>0.09456141207579818</v>
+        <v>0.107027729264</v>
       </c>
       <c r="R4">
-        <v>0.09456141207579818</v>
+        <v>0.963249563376</v>
       </c>
       <c r="S4">
-        <v>0.0007751915103867658</v>
+        <v>0.0006847433336508016</v>
       </c>
       <c r="T4">
-        <v>0.0007751915103867658</v>
+        <v>0.0008138897541311802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H5">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I5">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J5">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N5">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O5">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P5">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q5">
-        <v>0.133217853172814</v>
+        <v>0.194253891092</v>
       </c>
       <c r="R5">
-        <v>0.133217853172814</v>
+        <v>1.748285019828</v>
       </c>
       <c r="S5">
-        <v>0.001092087634316817</v>
+        <v>0.001242799953579101</v>
       </c>
       <c r="T5">
-        <v>0.001092087634316817</v>
+        <v>0.001477198972145923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H6">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I6">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J6">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N6">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O6">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P6">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q6">
-        <v>0.6473116940924154</v>
+        <v>0.7336359306459999</v>
       </c>
       <c r="R6">
-        <v>0.6473116940924154</v>
+        <v>4.401815583875999</v>
       </c>
       <c r="S6">
-        <v>0.005306504194673957</v>
+        <v>0.004693665055692462</v>
       </c>
       <c r="T6">
-        <v>0.005306504194673957</v>
+        <v>0.003719277682032217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H7">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J7">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N7">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O7">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P7">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q7">
-        <v>7.104488446317099</v>
+        <v>12.09174102642478</v>
       </c>
       <c r="R7">
-        <v>7.104488446317099</v>
+        <v>108.825669237823</v>
       </c>
       <c r="S7">
-        <v>0.05824087234242363</v>
+        <v>0.07736069070150078</v>
       </c>
       <c r="T7">
-        <v>0.05824087234242363</v>
+        <v>0.09195134941842603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H8">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I8">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J8">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N8">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P8">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q8">
-        <v>44.33346710775248</v>
+        <v>54.49149975720966</v>
       </c>
       <c r="R8">
-        <v>44.33346710775248</v>
+        <v>490.423497814887</v>
       </c>
       <c r="S8">
-        <v>0.363435005606652</v>
+        <v>0.3486263929541682</v>
       </c>
       <c r="T8">
-        <v>0.363435005606652</v>
+        <v>0.4143792795065147</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H9">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I9">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J9">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N9">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O9">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P9">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q9">
-        <v>5.317585294784908</v>
+        <v>6.736162798498667</v>
       </c>
       <c r="R9">
-        <v>5.317585294784908</v>
+        <v>60.625465186488</v>
       </c>
       <c r="S9">
-        <v>0.04359227390735824</v>
+        <v>0.04309670589460943</v>
       </c>
       <c r="T9">
-        <v>0.04359227390735824</v>
+        <v>0.05122498553934828</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H10">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I10">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J10">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N10">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O10">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P10">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q10">
-        <v>7.491399308491042</v>
+        <v>12.22604500381267</v>
       </c>
       <c r="R10">
-        <v>7.491399308491042</v>
+        <v>110.034405034314</v>
       </c>
       <c r="S10">
-        <v>0.06141267370462461</v>
+        <v>0.07821994235368059</v>
       </c>
       <c r="T10">
-        <v>0.06141267370462461</v>
+        <v>0.09297266073547214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H11">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I11">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J11">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N11">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O11">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P11">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q11">
-        <v>36.4010548286758</v>
+        <v>46.17393172445632</v>
       </c>
       <c r="R11">
-        <v>36.4010548286758</v>
+        <v>277.043590346738</v>
       </c>
       <c r="S11">
-        <v>0.2984070145832208</v>
+        <v>0.295412153039143</v>
       </c>
       <c r="T11">
-        <v>0.2984070145832208</v>
+        <v>0.2340856909819431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H12">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I12">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J12">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N12">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O12">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P12">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q12">
-        <v>1.379758401679622</v>
+        <v>0.02590233928111111</v>
       </c>
       <c r="R12">
-        <v>1.379758401679622</v>
+        <v>0.23312105353</v>
       </c>
       <c r="S12">
-        <v>0.01131092457153145</v>
+        <v>0.0001657183074953641</v>
       </c>
       <c r="T12">
-        <v>0.01131092457153145</v>
+        <v>0.000196973706663671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H13">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I13">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J13">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N13">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P13">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q13">
-        <v>8.609975817360692</v>
+        <v>0.1167290393966667</v>
       </c>
       <c r="R13">
-        <v>8.609975817360692</v>
+        <v>1.05056135457</v>
       </c>
       <c r="S13">
-        <v>0.07058249249602298</v>
+        <v>0.000746810495933921</v>
       </c>
       <c r="T13">
-        <v>0.07058249249602298</v>
+        <v>0.0008876631301798322</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H14">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I14">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J14">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N14">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O14">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P14">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q14">
-        <v>1.032725022014908</v>
+        <v>0.01442988018666667</v>
       </c>
       <c r="R14">
-        <v>1.032725022014908</v>
+        <v>0.12986892168</v>
       </c>
       <c r="S14">
-        <v>0.008466029134465895</v>
+        <v>9.231966641866607E-05</v>
       </c>
       <c r="T14">
-        <v>0.008466029134465895</v>
+        <v>0.0001097316715773663</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.03176580982314</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H15">
-        <v>1.03176580982314</v>
+        <v>0.04049</v>
       </c>
       <c r="I15">
-        <v>0.1602398101094681</v>
+        <v>0.001805224964847936</v>
       </c>
       <c r="J15">
-        <v>0.1602398101094681</v>
+        <v>0.001894976995849771</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N15">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O15">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P15">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q15">
-        <v>1.454900126072508</v>
+        <v>0.02619003872666667</v>
       </c>
       <c r="R15">
-        <v>1.454900126072508</v>
+        <v>0.23571034854</v>
       </c>
       <c r="S15">
-        <v>0.01192691819458031</v>
+        <v>0.0001675589545762086</v>
       </c>
       <c r="T15">
-        <v>0.01192691819458031</v>
+        <v>0.0001991615100732837</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.04049</v>
+      </c>
+      <c r="I16">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J16">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N16">
+        <v>14.657182</v>
+      </c>
+      <c r="O16">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P16">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q16">
+        <v>0.09891154986333332</v>
+      </c>
+      <c r="R16">
+        <v>0.5934692991799999</v>
+      </c>
+      <c r="S16">
+        <v>0.0006328175404237766</v>
+      </c>
+      <c r="T16">
+        <v>0.000501446977355618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0623235</v>
+      </c>
+      <c r="H17">
+        <v>2.124647</v>
+      </c>
+      <c r="I17">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J17">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.919165666666667</v>
+      </c>
+      <c r="N17">
+        <v>5.757497</v>
+      </c>
+      <c r="O17">
+        <v>0.09179925534063474</v>
+      </c>
+      <c r="P17">
+        <v>0.1039451703609422</v>
+      </c>
+      <c r="Q17">
+        <v>2.038774788093166</v>
+      </c>
+      <c r="R17">
+        <v>12.232648728559</v>
+      </c>
+      <c r="S17">
+        <v>0.01304369862429376</v>
+      </c>
+      <c r="T17">
+        <v>0.01033587539989747</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0623235</v>
+      </c>
+      <c r="H18">
+        <v>2.124647</v>
+      </c>
+      <c r="I18">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J18">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.648731</v>
+      </c>
+      <c r="N18">
+        <v>25.946193</v>
+      </c>
+      <c r="O18">
+        <v>0.4136938666792861</v>
+      </c>
+      <c r="P18">
+        <v>0.4684295018482661</v>
+      </c>
+      <c r="Q18">
+        <v>9.1877501864785</v>
+      </c>
+      <c r="R18">
+        <v>55.126501118871</v>
+      </c>
+      <c r="S18">
+        <v>0.05878150209018958</v>
+      </c>
+      <c r="T18">
+        <v>0.04657868131753989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0623235</v>
+      </c>
+      <c r="H19">
+        <v>2.124647</v>
+      </c>
+      <c r="I19">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J19">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.069144</v>
+      </c>
+      <c r="N19">
+        <v>3.207432</v>
+      </c>
+      <c r="O19">
+        <v>0.05114025576665047</v>
+      </c>
+      <c r="P19">
+        <v>0.05790659824245461</v>
+      </c>
+      <c r="Q19">
+        <v>1.135776796084</v>
+      </c>
+      <c r="R19">
+        <v>6.814660776504001</v>
+      </c>
+      <c r="S19">
+        <v>0.007266486871971583</v>
+      </c>
+      <c r="T19">
+        <v>0.00575799127739779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="H16">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="I16">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="J16">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.85177465841194</v>
-      </c>
-      <c r="N16">
-        <v>6.85177465841194</v>
-      </c>
-      <c r="O16">
-        <v>0.3616669644907623</v>
-      </c>
-      <c r="P16">
-        <v>0.3616669644907623</v>
-      </c>
-      <c r="Q16">
-        <v>7.069426829162063</v>
-      </c>
-      <c r="R16">
-        <v>7.069426829162063</v>
-      </c>
-      <c r="S16">
-        <v>0.05795344571286751</v>
-      </c>
-      <c r="T16">
-        <v>0.05795344571286751</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0623235</v>
+      </c>
+      <c r="H20">
+        <v>2.124647</v>
+      </c>
+      <c r="I20">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J20">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.940482</v>
+      </c>
+      <c r="N20">
+        <v>5.821446</v>
+      </c>
+      <c r="O20">
+        <v>0.09281887733605711</v>
+      </c>
+      <c r="P20">
+        <v>0.1050996980488267</v>
+      </c>
+      <c r="Q20">
+        <v>2.061419629927</v>
+      </c>
+      <c r="R20">
+        <v>12.368517779562</v>
+      </c>
+      <c r="S20">
+        <v>0.01318857607422121</v>
+      </c>
+      <c r="T20">
+        <v>0.01045067683113539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0623235</v>
+      </c>
+      <c r="H21">
+        <v>2.124647</v>
+      </c>
+      <c r="I21">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J21">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N21">
+        <v>14.657182</v>
+      </c>
+      <c r="O21">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P21">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q21">
+        <v>7.785334441188499</v>
+      </c>
+      <c r="R21">
+        <v>31.141337764754</v>
+      </c>
+      <c r="S21">
+        <v>0.04980910924211247</v>
+      </c>
+      <c r="T21">
+        <v>0.02631261585817934</v>
       </c>
     </row>
   </sheetData>
